--- a/campanhas_lucro_reducao.xlsx
+++ b/campanhas_lucro_reducao.xlsx
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>273.22</v>
+        <v>928.01</v>
       </c>
       <c r="E2" t="n">
-        <v>62.96</v>
+        <v>14.22</v>
       </c>
       <c r="F2" t="n">
-        <v>167.4</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>2.66</v>
+        <v>5.94</v>
       </c>
       <c r="H2" t="n">
-        <v>104.44</v>
+        <v>70.18000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>245.898</v>
+        <v>788.8085</v>
       </c>
     </row>
     <row r="3">
@@ -520,22 +520,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2264.25</v>
+        <v>600.6</v>
       </c>
       <c r="E3" t="n">
-        <v>677.23</v>
+        <v>28.18</v>
       </c>
       <c r="F3" t="n">
-        <v>902.92</v>
+        <v>60.16</v>
       </c>
       <c r="G3" t="n">
-        <v>1.33</v>
+        <v>2.13</v>
       </c>
       <c r="H3" t="n">
-        <v>225.6899999999999</v>
+        <v>31.98</v>
       </c>
       <c r="I3" t="n">
-        <v>2037.825</v>
+        <v>510.51</v>
       </c>
     </row>
     <row r="4">
@@ -555,22 +555,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>126.78</v>
+        <v>555.36</v>
       </c>
       <c r="E4" t="n">
-        <v>54.58</v>
+        <v>31.08</v>
       </c>
       <c r="F4" t="n">
-        <v>81.59999999999999</v>
+        <v>61.4</v>
       </c>
       <c r="G4" t="n">
-        <v>1.5</v>
+        <v>1.98</v>
       </c>
       <c r="H4" t="n">
-        <v>27.02</v>
+        <v>30.32</v>
       </c>
       <c r="I4" t="n">
-        <v>114.102</v>
+        <v>472.056</v>
       </c>
     </row>
     <row r="5">
@@ -590,22 +590,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>153.98</v>
+        <v>803.16</v>
       </c>
       <c r="E5" t="n">
-        <v>56.67</v>
+        <v>36.84</v>
       </c>
       <c r="F5" t="n">
-        <v>111.68</v>
+        <v>84.08</v>
       </c>
       <c r="G5" t="n">
-        <v>1.97</v>
+        <v>2.28</v>
       </c>
       <c r="H5" t="n">
-        <v>55.01000000000001</v>
+        <v>47.23999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>138.582</v>
+        <v>682.6859999999999</v>
       </c>
     </row>
     <row r="6">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>880.62</v>
+        <v>303.64</v>
       </c>
       <c r="E6" t="n">
-        <v>254.57</v>
+        <v>17.96</v>
       </c>
       <c r="F6" t="n">
-        <v>446.16</v>
+        <v>28.32</v>
       </c>
       <c r="G6" t="n">
-        <v>1.75</v>
+        <v>1.58</v>
       </c>
       <c r="H6" t="n">
-        <v>191.59</v>
+        <v>10.36</v>
       </c>
       <c r="I6" t="n">
-        <v>792.558</v>
+        <v>258.094</v>
       </c>
     </row>
     <row r="7">
@@ -660,22 +660,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>261.24</v>
+        <v>150</v>
       </c>
       <c r="E7" t="n">
-        <v>130.93</v>
+        <v>34.31</v>
       </c>
       <c r="F7" t="n">
-        <v>108.4</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>-22.53</v>
+        <v>-34.31</v>
       </c>
       <c r="I7" t="n">
-        <v>235.116</v>
+        <v>127.5</v>
       </c>
     </row>
     <row r="8">
@@ -695,22 +695,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1441.1</v>
+        <v>687.28</v>
       </c>
       <c r="E8" t="n">
-        <v>428.15</v>
+        <v>13.28</v>
       </c>
       <c r="F8" t="n">
-        <v>546.6799999999999</v>
+        <v>51.6</v>
       </c>
       <c r="G8" t="n">
-        <v>1.28</v>
+        <v>3.89</v>
       </c>
       <c r="H8" t="n">
-        <v>118.53</v>
+        <v>38.32</v>
       </c>
       <c r="I8" t="n">
-        <v>1296.99</v>
+        <v>584.188</v>
       </c>
     </row>
     <row r="9">
@@ -730,22 +730,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2427.87</v>
+        <v>1559.65</v>
       </c>
       <c r="E9" t="n">
-        <v>592.71</v>
+        <v>24.31</v>
       </c>
       <c r="F9" t="n">
-        <v>1467.44</v>
+        <v>122.2</v>
       </c>
       <c r="G9" t="n">
-        <v>2.48</v>
+        <v>5.03</v>
       </c>
       <c r="H9" t="n">
-        <v>874.73</v>
+        <v>97.89</v>
       </c>
       <c r="I9" t="n">
-        <v>2185.083</v>
+        <v>1325.7025</v>
       </c>
     </row>
     <row r="10">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>148.38</v>
+        <v>150</v>
       </c>
       <c r="E10" t="n">
-        <v>50</v>
+        <v>28.7</v>
       </c>
       <c r="F10" t="n">
-        <v>98.8</v>
+        <v>20.8</v>
       </c>
       <c r="G10" t="n">
-        <v>1.98</v>
+        <v>0.72</v>
       </c>
       <c r="H10" t="n">
-        <v>48.8</v>
+        <v>-7.899999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>133.542</v>
+        <v>127.5</v>
       </c>
     </row>
     <row r="11">
@@ -800,22 +800,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>318.62</v>
+        <v>157.49</v>
       </c>
       <c r="E11" t="n">
-        <v>81.37</v>
+        <v>20.35</v>
       </c>
       <c r="F11" t="n">
-        <v>258.12</v>
+        <v>20.32</v>
       </c>
       <c r="G11" t="n">
-        <v>3.17</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>176.75</v>
+        <v>-0.03000000000000114</v>
       </c>
       <c r="I11" t="n">
-        <v>286.758</v>
+        <v>133.8665</v>
       </c>
     </row>
     <row r="12">
@@ -835,22 +835,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>325.7</v>
+        <v>623.52</v>
       </c>
       <c r="E12" t="n">
-        <v>120</v>
+        <v>19.49</v>
       </c>
       <c r="F12" t="n">
-        <v>158.4</v>
+        <v>53.6</v>
       </c>
       <c r="G12" t="n">
-        <v>1.32</v>
+        <v>2.75</v>
       </c>
       <c r="H12" t="n">
-        <v>38.40000000000001</v>
+        <v>34.11</v>
       </c>
       <c r="I12" t="n">
-        <v>293.13</v>
+        <v>529.992</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +870,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>377.62</v>
+        <v>171.42</v>
       </c>
       <c r="E13" t="n">
-        <v>131.11</v>
+        <v>18.61</v>
       </c>
       <c r="F13" t="n">
-        <v>167.28</v>
+        <v>24.8</v>
       </c>
       <c r="G13" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="H13" t="n">
-        <v>36.16999999999999</v>
+        <v>6.190000000000001</v>
       </c>
       <c r="I13" t="n">
-        <v>339.858</v>
+        <v>145.707</v>
       </c>
     </row>
     <row r="14">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>111.76</v>
+        <v>111.02</v>
       </c>
       <c r="E14" t="n">
-        <v>59.25</v>
+        <v>24.84</v>
       </c>
       <c r="F14" t="n">
-        <v>70.8</v>
+        <v>13.2</v>
       </c>
       <c r="G14" t="n">
-        <v>1.19</v>
+        <v>0.53</v>
       </c>
       <c r="H14" t="n">
-        <v>11.55</v>
+        <v>-11.64</v>
       </c>
       <c r="I14" t="n">
-        <v>100.584</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15">
@@ -940,22 +940,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>265.82</v>
+        <v>345.99</v>
       </c>
       <c r="E15" t="n">
-        <v>72.89</v>
+        <v>24.8</v>
       </c>
       <c r="F15" t="n">
-        <v>218.6</v>
+        <v>38.4</v>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>1.55</v>
       </c>
       <c r="H15" t="n">
-        <v>145.71</v>
+        <v>13.6</v>
       </c>
       <c r="I15" t="n">
-        <v>239.238</v>
+        <v>294.0915</v>
       </c>
     </row>
   </sheetData>

--- a/campanhas_lucro_reducao.xlsx
+++ b/campanhas_lucro_reducao.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,31 +476,31 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>120223099071640431</t>
+          <t>120227372043910431</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>🟡 [T]-[Conversão]-[Mx. Num.] -  Lançamentos</t>
+          <t>🟡 [T]-[Conversão]-[Mx. Val.] - Como participar</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>928.01</v>
+        <v>842.5700000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>14.22</v>
+        <v>280.99</v>
       </c>
       <c r="F2" t="n">
-        <v>84.40000000000001</v>
+        <v>476.8</v>
       </c>
       <c r="G2" t="n">
-        <v>5.94</v>
+        <v>1.7</v>
       </c>
       <c r="H2" t="n">
-        <v>70.18000000000001</v>
+        <v>195.81</v>
       </c>
       <c r="I2" t="n">
-        <v>788.8085</v>
+        <v>547.6705000000001</v>
       </c>
     </row>
     <row r="3">
@@ -511,31 +511,31 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>120222533000150431</t>
+          <t>120227095176980431</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>🟡 [T]-[Conversão]-[Mx. Num.] -&gt; Reação</t>
+          <t>🌎🟡 [T]-[Conversão]-[Mx. Val.] -Ganhadores 2</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>600.6</v>
+        <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v>28.18</v>
+        <v>79.23</v>
       </c>
       <c r="F3" t="n">
-        <v>60.16</v>
+        <v>59.6</v>
       </c>
       <c r="G3" t="n">
-        <v>2.13</v>
+        <v>0.75</v>
       </c>
       <c r="H3" t="n">
-        <v>31.98</v>
+        <v>-19.63</v>
       </c>
       <c r="I3" t="n">
-        <v>510.51</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
@@ -546,31 +546,31 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>120221473064310431</t>
+          <t>120222533000150431</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>🟡 [T]-[Conversão]-[Mx. Num.] - Pascoa</t>
+          <t>🟡 [T]-[Conversão]-[Mx. Num.] -&gt; Reação</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>555.36</v>
+        <v>594.9299999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>31.08</v>
+        <v>264.96</v>
       </c>
       <c r="F4" t="n">
-        <v>61.4</v>
+        <v>419.4</v>
       </c>
       <c r="G4" t="n">
-        <v>1.98</v>
+        <v>1.58</v>
       </c>
       <c r="H4" t="n">
-        <v>30.32</v>
+        <v>154.44</v>
       </c>
       <c r="I4" t="n">
-        <v>472.056</v>
+        <v>386.7045</v>
       </c>
     </row>
     <row r="5">
@@ -581,31 +581,31 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>120215736960620431</t>
+          <t>120221473064310431</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>🟡 [T]-[Conversão]-[Mx. Num.] - Chamadas Seguidores</t>
+          <t>🟡 [T]-[Conversão]-[Mx. Num.] - Pascoa</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>803.16</v>
+        <v>264.31</v>
       </c>
       <c r="E5" t="n">
-        <v>36.84</v>
+        <v>123.59</v>
       </c>
       <c r="F5" t="n">
-        <v>84.08</v>
+        <v>181</v>
       </c>
       <c r="G5" t="n">
-        <v>2.28</v>
+        <v>1.46</v>
       </c>
       <c r="H5" t="n">
-        <v>47.23999999999999</v>
+        <v>57.41</v>
       </c>
       <c r="I5" t="n">
-        <v>682.6859999999999</v>
+        <v>171.8015</v>
       </c>
     </row>
     <row r="6">
@@ -616,31 +616,31 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>120215567870460431</t>
+          <t>120215736960620431</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>🟡 [T]-[Conversão]-[Mx. Num.] - Dia das Crianças - Cortes — 2</t>
+          <t>🟡 [T]-[Conversão]-[Mx. Num.] - Chamadas Seguidores</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>303.64</v>
+        <v>322.8</v>
       </c>
       <c r="E6" t="n">
-        <v>17.96</v>
+        <v>191.55</v>
       </c>
       <c r="F6" t="n">
-        <v>28.32</v>
+        <v>188.6</v>
       </c>
       <c r="G6" t="n">
-        <v>1.58</v>
+        <v>0.98</v>
       </c>
       <c r="H6" t="n">
-        <v>10.36</v>
+        <v>-2.950000000000017</v>
       </c>
       <c r="I6" t="n">
-        <v>258.094</v>
+        <v>209.82</v>
       </c>
     </row>
     <row r="7">
@@ -651,31 +651,31 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>120215039931450431</t>
+          <t>120215567870460431</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>🟡 [T]-[Conversão]-[Mx. val.] - Dia das Crianças - Cortes</t>
+          <t>🟡 [T]-[Conversão]-[Mx. Num.] - Dia das Crianças - Cortes — 2</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>150</v>
+        <v>631.64</v>
       </c>
       <c r="E7" t="n">
-        <v>34.31</v>
+        <v>185.69</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>355.2</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="H7" t="n">
-        <v>-34.31</v>
+        <v>169.51</v>
       </c>
       <c r="I7" t="n">
-        <v>127.5</v>
+        <v>410.566</v>
       </c>
     </row>
     <row r="8">
@@ -686,31 +686,31 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>120215038900720431</t>
+          <t>120215039931450431</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>🟡 [T]-[Conversão]-[Mx. Num.] - Dia das Crianças - Cortes</t>
+          <t>🟡 [T]-[Conversão]-[Mx. val.] - Dia das Crianças - Cortes</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>687.28</v>
+        <v>154.35</v>
       </c>
       <c r="E8" t="n">
-        <v>13.28</v>
+        <v>74.94</v>
       </c>
       <c r="F8" t="n">
-        <v>51.6</v>
+        <v>154</v>
       </c>
       <c r="G8" t="n">
-        <v>3.89</v>
+        <v>2.05</v>
       </c>
       <c r="H8" t="n">
-        <v>38.32</v>
+        <v>79.06</v>
       </c>
       <c r="I8" t="n">
-        <v>584.188</v>
+        <v>100.3275</v>
       </c>
     </row>
     <row r="9">
@@ -721,31 +721,31 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>120214808911760431</t>
+          <t>120215038900720431</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>🌎🟡 [T]-[Conversão]-[Mx. Num.] - Ganhadores</t>
+          <t>🟡 [T]-[Conversão]-[Mx. Num.] - Dia das Crianças - Cortes</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1559.65</v>
+        <v>340.06</v>
       </c>
       <c r="E9" t="n">
-        <v>24.31</v>
+        <v>136.61</v>
       </c>
       <c r="F9" t="n">
-        <v>122.2</v>
+        <v>240</v>
       </c>
       <c r="G9" t="n">
-        <v>5.03</v>
+        <v>1.76</v>
       </c>
       <c r="H9" t="n">
-        <v>97.89</v>
+        <v>103.39</v>
       </c>
       <c r="I9" t="n">
-        <v>1325.7025</v>
+        <v>221.039</v>
       </c>
     </row>
     <row r="10">
@@ -756,31 +756,31 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>120214807605110431</t>
+          <t>120214808911760431</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>🟡 [T]-[Conversão]-[Mx. Num.] - Cortes</t>
+          <t>🌎🟡 [T]-[Conversão]-[Mx. Num.] - Ganhadores</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>150</v>
+        <v>5978.12</v>
       </c>
       <c r="E10" t="n">
-        <v>28.7</v>
+        <v>1763.42</v>
       </c>
       <c r="F10" t="n">
-        <v>20.8</v>
+        <v>2967.1</v>
       </c>
       <c r="G10" t="n">
-        <v>0.72</v>
+        <v>1.68</v>
       </c>
       <c r="H10" t="n">
-        <v>-7.899999999999999</v>
+        <v>1203.68</v>
       </c>
       <c r="I10" t="n">
-        <v>127.5</v>
+        <v>3885.778</v>
       </c>
     </row>
     <row r="11">
@@ -791,66 +791,66 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>120214350104200431</t>
+          <t>120214323043310431</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>🟡 [T]-[Conversão]-[Mx. Num.] - Dia das Crianças</t>
+          <t>🟡 [T]-[Conversão]-[Mx. Num.] -  cartinha</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>157.49</v>
+        <v>158.1</v>
       </c>
       <c r="E11" t="n">
-        <v>20.35</v>
+        <v>102.18</v>
       </c>
       <c r="F11" t="n">
-        <v>20.32</v>
+        <v>154.8</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>1.51</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.03000000000000114</v>
+        <v>52.62</v>
       </c>
       <c r="I11" t="n">
-        <v>133.8665</v>
+        <v>102.765</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>act_790223756353632</t>
+          <t>act_303402486183447</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>120214323043310431</t>
+          <t>120227639640790338</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>🟡 [T]-[Conversão]-[Mx. Num.] -  cartinha</t>
+          <t>🔥 [T]-[Conversão]-[Mx. Val]-[Perfil] - Gatilhos</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>623.52</v>
+        <v>4163.47</v>
       </c>
       <c r="E12" t="n">
-        <v>19.49</v>
+        <v>535.3099999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>53.6</v>
+        <v>926</v>
       </c>
       <c r="G12" t="n">
-        <v>2.75</v>
+        <v>1.73</v>
       </c>
       <c r="H12" t="n">
-        <v>34.11</v>
+        <v>390.6900000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>529.992</v>
+        <v>2706.2555</v>
       </c>
     </row>
     <row r="13">
@@ -861,31 +861,31 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>120223669040530338</t>
+          <t>120227628451420338</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>🔥 [T]-[Conversão]-[Perfil] - Lançamentos</t>
+          <t>🔥 [T]-[Conversão]-[Perfil] - Lançamentos — 2</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>171.42</v>
+        <v>2963.86</v>
       </c>
       <c r="E13" t="n">
-        <v>18.61</v>
+        <v>459.03</v>
       </c>
       <c r="F13" t="n">
-        <v>24.8</v>
+        <v>856</v>
       </c>
       <c r="G13" t="n">
-        <v>1.33</v>
+        <v>1.86</v>
       </c>
       <c r="H13" t="n">
-        <v>6.190000000000001</v>
+        <v>396.97</v>
       </c>
       <c r="I13" t="n">
-        <v>145.707</v>
+        <v>1926.509</v>
       </c>
     </row>
     <row r="14">
@@ -896,31 +896,31 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>120214509094010338</t>
+          <t>120227626914980338</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>🔥 [T]-[Conversão]-[Mx. Val]-[Perfil] - LTV</t>
+          <t>🔥 [T]-[Conversão]-[Perfil] - Lançamentos</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>111.02</v>
+        <v>1883.95</v>
       </c>
       <c r="E14" t="n">
-        <v>24.84</v>
+        <v>386.3</v>
       </c>
       <c r="F14" t="n">
-        <v>13.2</v>
+        <v>747.2</v>
       </c>
       <c r="G14" t="n">
-        <v>0.53</v>
+        <v>1.93</v>
       </c>
       <c r="H14" t="n">
-        <v>-11.64</v>
+        <v>360.9</v>
       </c>
       <c r="I14" t="n">
-        <v>100</v>
+        <v>1224.5675</v>
       </c>
     </row>
     <row r="15">
@@ -931,31 +931,66 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>120214509094010338</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>🔥 [T]-[Conversão]-[Mx. Val]-[Perfil] - LTV</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>426.63</v>
+      </c>
+      <c r="E15" t="n">
+        <v>200.62</v>
+      </c>
+      <c r="F15" t="n">
+        <v>206.4</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H15" t="n">
+        <v>5.780000000000001</v>
+      </c>
+      <c r="I15" t="n">
+        <v>277.3095</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>act_303402486183447</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>120214507411990338</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>🔥 [T]-[Conversão]-[Mx. Num]-[Perfil] - LTV</t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>345.99</v>
-      </c>
-      <c r="E15" t="n">
-        <v>24.8</v>
-      </c>
-      <c r="F15" t="n">
-        <v>38.4</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="H15" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="I15" t="n">
-        <v>294.0915</v>
+      <c r="D16" t="n">
+        <v>1250.42</v>
+      </c>
+      <c r="E16" t="n">
+        <v>234.02</v>
+      </c>
+      <c r="F16" t="n">
+        <v>447.2</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H16" t="n">
+        <v>213.18</v>
+      </c>
+      <c r="I16" t="n">
+        <v>812.773</v>
       </c>
     </row>
   </sheetData>

--- a/campanhas_lucro_reducao.xlsx
+++ b/campanhas_lucro_reducao.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,31 +476,41 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>120227372043910431</t>
+          <t>120227590767740431</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>🟡 [T]-[Conversão]-[Mx. Val.] - Como participar</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>842.5700000000001</v>
+          <t>🟡 [T]-[Conversão]-[Mx. Val.] - Gatilhos</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CBO</t>
+        </is>
       </c>
       <c r="E2" t="n">
-        <v>280.99</v>
+        <v>100</v>
       </c>
       <c r="F2" t="n">
-        <v>476.8</v>
+        <v>22.9</v>
       </c>
       <c r="G2" t="n">
-        <v>1.7</v>
+        <v>16</v>
       </c>
       <c r="H2" t="n">
-        <v>195.81</v>
+        <v>0.7</v>
       </c>
       <c r="I2" t="n">
-        <v>547.6705000000001</v>
+        <v>-6.899999999999999</v>
+      </c>
+      <c r="J2" t="n">
+        <v>100</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -511,31 +521,41 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>120227095176980431</t>
+          <t>120227588920730431</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>🌎🟡 [T]-[Conversão]-[Mx. Val.] -Ganhadores 2</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>100</v>
+          <t>🧊 [T]-[Conversão]-[Mx. Val]-[Perfil] - Best ADS</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CBO</t>
+        </is>
       </c>
       <c r="E3" t="n">
-        <v>79.23</v>
+        <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>59.6</v>
+        <v>24.67</v>
       </c>
       <c r="G3" t="n">
-        <v>0.75</v>
+        <v>10</v>
       </c>
       <c r="H3" t="n">
-        <v>-19.63</v>
+        <v>0.41</v>
       </c>
       <c r="I3" t="n">
-        <v>100</v>
+        <v>-14.67</v>
+      </c>
+      <c r="J3" t="n">
+        <v>100</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -546,31 +566,41 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>120222533000150431</t>
+          <t>120227372043910431</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>🟡 [T]-[Conversão]-[Mx. Num.] -&gt; Reação</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>594.9299999999999</v>
+          <t>🟡 [T]-[Conversão]-[Mx. Val.] - Como participar</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CBO</t>
+        </is>
       </c>
       <c r="E4" t="n">
-        <v>264.96</v>
+        <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>419.4</v>
+        <v>27.19</v>
       </c>
       <c r="G4" t="n">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>154.44</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>386.7045</v>
+        <v>-27.19</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -581,31 +611,41 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>120221473064310431</t>
+          <t>120227095176980431</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>🟡 [T]-[Conversão]-[Mx. Num.] - Pascoa</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>264.31</v>
+          <t>🌎🟡 [T]-[Conversão]-[Mx. Val.] -Ganhadores 2</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>CBO</t>
+        </is>
       </c>
       <c r="E5" t="n">
-        <v>123.59</v>
+        <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>181</v>
+        <v>22.28</v>
       </c>
       <c r="G5" t="n">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>57.41</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>171.8015</v>
+        <v>-22.28</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -616,31 +656,41 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>120215736960620431</t>
+          <t>120222533000150431</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>🟡 [T]-[Conversão]-[Mx. Num.] - Chamadas Seguidores</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>322.8</v>
+          <t>🟡 [T]-[Conversão]-[Mx. Num.] -&gt; Reação</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>CBO</t>
+        </is>
       </c>
       <c r="E6" t="n">
-        <v>191.55</v>
+        <v>264.75</v>
       </c>
       <c r="F6" t="n">
-        <v>188.6</v>
+        <v>34.91</v>
       </c>
       <c r="G6" t="n">
-        <v>0.98</v>
+        <v>16</v>
       </c>
       <c r="H6" t="n">
-        <v>-2.950000000000017</v>
+        <v>0.46</v>
       </c>
       <c r="I6" t="n">
-        <v>209.82</v>
+        <v>-18.91</v>
+      </c>
+      <c r="J6" t="n">
+        <v>172.0875</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -651,31 +701,41 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>120215567870460431</t>
+          <t>120221473064310431</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>🟡 [T]-[Conversão]-[Mx. Num.] - Dia das Crianças - Cortes — 2</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>631.64</v>
+          <t>🟡 [T]-[Conversão]-[Mx. Num.] - Pascoa</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>CBO</t>
+        </is>
       </c>
       <c r="E7" t="n">
-        <v>185.69</v>
+        <v>100</v>
       </c>
       <c r="F7" t="n">
-        <v>355.2</v>
+        <v>33.44</v>
       </c>
       <c r="G7" t="n">
-        <v>1.91</v>
+        <v>8</v>
       </c>
       <c r="H7" t="n">
-        <v>169.51</v>
+        <v>0.24</v>
       </c>
       <c r="I7" t="n">
-        <v>410.566</v>
+        <v>-25.44</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -686,31 +746,41 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>120215039931450431</t>
+          <t>120215736960620431</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>🟡 [T]-[Conversão]-[Mx. val.] - Dia das Crianças - Cortes</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>154.35</v>
+          <t>🟡 [T]-[Conversão]-[Mx. Num.] - Chamadas Seguidores</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>CBO</t>
+        </is>
       </c>
       <c r="E8" t="n">
-        <v>74.94</v>
+        <v>267.5</v>
       </c>
       <c r="F8" t="n">
-        <v>154</v>
+        <v>50.29</v>
       </c>
       <c r="G8" t="n">
-        <v>2.05</v>
+        <v>24</v>
       </c>
       <c r="H8" t="n">
-        <v>79.06</v>
+        <v>0.48</v>
       </c>
       <c r="I8" t="n">
-        <v>100.3275</v>
+        <v>-26.29</v>
+      </c>
+      <c r="J8" t="n">
+        <v>173.875</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -721,31 +791,41 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>120215038900720431</t>
+          <t>120215567870460431</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>🟡 [T]-[Conversão]-[Mx. Num.] - Dia das Crianças - Cortes</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>340.06</v>
+          <t>🟡 [T]-[Conversão]-[Mx. Num.] - Dia das Crianças - Cortes — 2</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>CBO</t>
+        </is>
       </c>
       <c r="E9" t="n">
-        <v>136.61</v>
+        <v>758.83</v>
       </c>
       <c r="F9" t="n">
-        <v>240</v>
+        <v>16.38</v>
       </c>
       <c r="G9" t="n">
-        <v>1.76</v>
+        <v>32</v>
       </c>
       <c r="H9" t="n">
-        <v>103.39</v>
+        <v>1.95</v>
       </c>
       <c r="I9" t="n">
-        <v>221.039</v>
+        <v>15.62</v>
+      </c>
+      <c r="J9" t="n">
+        <v>493.2395</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -756,31 +836,41 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>120214808911760431</t>
+          <t>120215039931450431</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>🌎🟡 [T]-[Conversão]-[Mx. Num.] - Ganhadores</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>5978.12</v>
+          <t>🟡 [T]-[Conversão]-[Mx. val.] - Dia das Crianças - Cortes</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>CBO</t>
+        </is>
       </c>
       <c r="E10" t="n">
-        <v>1763.42</v>
+        <v>138.02</v>
       </c>
       <c r="F10" t="n">
-        <v>2967.1</v>
+        <v>31.12</v>
       </c>
       <c r="G10" t="n">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>1203.68</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>3885.778</v>
+        <v>-31.12</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -791,101 +881,131 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>120214323043310431</t>
+          <t>120215038900720431</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>🟡 [T]-[Conversão]-[Mx. Num.] -  cartinha</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>158.1</v>
+          <t>🟡 [T]-[Conversão]-[Mx. Num.] - Dia das Crianças - Cortes</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>CBO</t>
+        </is>
       </c>
       <c r="E11" t="n">
-        <v>102.18</v>
+        <v>100</v>
       </c>
       <c r="F11" t="n">
-        <v>154.8</v>
+        <v>16.85</v>
       </c>
       <c r="G11" t="n">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>52.62</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>102.765</v>
+        <v>-16.85</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>act_303402486183447</t>
+          <t>act_790223756353632</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>120227639640790338</t>
+          <t>120214808911760431</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>🔥 [T]-[Conversão]-[Mx. Val]-[Perfil] - Gatilhos</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>4163.47</v>
+          <t>🌎🟡 [T]-[Conversão]-[Mx. Num.] - Ganhadores</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>CBO</t>
+        </is>
       </c>
       <c r="E12" t="n">
-        <v>535.3099999999999</v>
+        <v>2624.85</v>
       </c>
       <c r="F12" t="n">
-        <v>926</v>
+        <v>505.49</v>
       </c>
       <c r="G12" t="n">
-        <v>1.73</v>
+        <v>180</v>
       </c>
       <c r="H12" t="n">
-        <v>390.6900000000001</v>
+        <v>0.36</v>
       </c>
       <c r="I12" t="n">
-        <v>2706.2555</v>
+        <v>-325.49</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1706.1525</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>act_303402486183447</t>
+          <t>act_790223756353632</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>120227628451420338</t>
+          <t>120214323043310431</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>🔥 [T]-[Conversão]-[Perfil] - Lançamentos — 2</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>2963.86</v>
+          <t>🟡 [T]-[Conversão]-[Mx. Num.] -  cartinha</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>CBO</t>
+        </is>
       </c>
       <c r="E13" t="n">
-        <v>459.03</v>
+        <v>100</v>
       </c>
       <c r="F13" t="n">
-        <v>856</v>
+        <v>32.08</v>
       </c>
       <c r="G13" t="n">
-        <v>1.86</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>396.97</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1926.509</v>
+        <v>-32.08</v>
+      </c>
+      <c r="J13" t="n">
+        <v>100</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -896,31 +1016,41 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>120227626914980338</t>
+          <t>120227639640790338</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>🔥 [T]-[Conversão]-[Perfil] - Lançamentos</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>1883.95</v>
+          <t>🔥 [T]-[Conversão]-[Mx. Val]-[Perfil] - Gatilhos</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>CBO</t>
+        </is>
       </c>
       <c r="E14" t="n">
-        <v>386.3</v>
+        <v>279.01</v>
       </c>
       <c r="F14" t="n">
-        <v>747.2</v>
+        <v>19.43</v>
       </c>
       <c r="G14" t="n">
-        <v>1.93</v>
+        <v>16</v>
       </c>
       <c r="H14" t="n">
-        <v>360.9</v>
+        <v>0.82</v>
       </c>
       <c r="I14" t="n">
-        <v>1224.5675</v>
+        <v>-3.43</v>
+      </c>
+      <c r="J14" t="n">
+        <v>181.3565</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -931,31 +1061,41 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>120214509094010338</t>
+          <t>120227628451420338</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>🔥 [T]-[Conversão]-[Mx. Val]-[Perfil] - LTV</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>426.63</v>
+          <t>🔥 [T]-[Conversão]-[Perfil] - Lançamentos — 2</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>CBO</t>
+        </is>
       </c>
       <c r="E15" t="n">
-        <v>200.62</v>
+        <v>2356.52</v>
       </c>
       <c r="F15" t="n">
-        <v>206.4</v>
+        <v>13.67</v>
       </c>
       <c r="G15" t="n">
-        <v>1.03</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="H15" t="n">
-        <v>5.780000000000001</v>
+        <v>5.59</v>
       </c>
       <c r="I15" t="n">
-        <v>277.3095</v>
+        <v>62.73</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1531.738</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -966,31 +1106,311 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>120227626914980338</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>🔥 [T]-[Conversão]-[Perfil] - Lançamentos</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>CBO</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>2366.18</v>
+      </c>
+      <c r="F16" t="n">
+        <v>14.77</v>
+      </c>
+      <c r="G16" t="n">
+        <v>68</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I16" t="n">
+        <v>53.23</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1538.017</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>act_303402486183447</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>120214509094010338</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>🔥 [T]-[Conversão]-[Mx. Val]-[Perfil] - LTV</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>CBO</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>100</v>
+      </c>
+      <c r="F17" t="n">
+        <v>39.18</v>
+      </c>
+      <c r="G17" t="n">
+        <v>32</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-7.18</v>
+      </c>
+      <c r="J17" t="n">
+        <v>100</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>act_303402486183447</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>120214507411990338</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>🔥 [T]-[Conversão]-[Mx. Num]-[Perfil] - LTV</t>
         </is>
       </c>
-      <c r="D16" t="n">
-        <v>1250.42</v>
-      </c>
-      <c r="E16" t="n">
-        <v>234.02</v>
-      </c>
-      <c r="F16" t="n">
-        <v>447.2</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="H16" t="n">
-        <v>213.18</v>
-      </c>
-      <c r="I16" t="n">
-        <v>812.773</v>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>CBO</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>188.11</v>
+      </c>
+      <c r="F18" t="n">
+        <v>27.34</v>
+      </c>
+      <c r="G18" t="n">
+        <v>24</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-3.34</v>
+      </c>
+      <c r="J18" t="n">
+        <v>122.2715</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>act_406219475582745</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>120226735943410030</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>🚀 [T]-[Conversão]-[Mx. Val.] - Rapidinha 200k - Gamb</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>ABO</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>133.2</v>
+      </c>
+      <c r="F19" t="n">
+        <v>37.73000000000001</v>
+      </c>
+      <c r="G19" t="n">
+        <v>24</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-13.73000000000001</v>
+      </c>
+      <c r="J19" t="n">
+        <v>120</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>15 adsets ativos</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>act_406219475582745</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>120226735942950030</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>🚀 [T]-[Conversão]-[Mx. Val.] - Rapidinha 200k - Aberto</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>ABO</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>133.2</v>
+      </c>
+      <c r="F20" t="n">
+        <v>37.18</v>
+      </c>
+      <c r="G20" t="n">
+        <v>8</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-29.18</v>
+      </c>
+      <c r="J20" t="n">
+        <v>120</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>15 adsets ativos</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>act_406219475582745</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>120226735942940030</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>🚀 [T]-[Conversão]-[Mx. Val.] - Rapidinha 200k - Musica</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>ABO</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>133.2</v>
+      </c>
+      <c r="F21" t="n">
+        <v>41.14</v>
+      </c>
+      <c r="G21" t="n">
+        <v>16</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-25.14</v>
+      </c>
+      <c r="J21" t="n">
+        <v>120</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>15 adsets ativos</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>act_406219475582745</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>120226735942930030</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>🚀 [T]-[Conversão]-[Mx. Val.] - Rapidinha 200k - Carros</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>ABO</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>133.2</v>
+      </c>
+      <c r="F22" t="n">
+        <v>38.91999999999999</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>-38.91999999999999</v>
+      </c>
+      <c r="J22" t="n">
+        <v>120</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>15 adsets ativos</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/campanhas_lucro_reducao.xlsx
+++ b/campanhas_lucro_reducao.xlsx
@@ -490,22 +490,22 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>301.21</v>
       </c>
       <c r="F2" t="n">
-        <v>22.9</v>
+        <v>34.17</v>
       </c>
       <c r="G2" t="n">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7</v>
+        <v>1.99</v>
       </c>
       <c r="I2" t="n">
-        <v>-6.899999999999999</v>
+        <v>33.83</v>
       </c>
       <c r="J2" t="n">
-        <v>100</v>
+        <v>256.0285</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -535,22 +535,22 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100</v>
+        <v>159.71</v>
       </c>
       <c r="F3" t="n">
-        <v>24.67</v>
+        <v>36.61</v>
       </c>
       <c r="G3" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="H3" t="n">
-        <v>0.41</v>
+        <v>1.37</v>
       </c>
       <c r="I3" t="n">
-        <v>-14.67</v>
+        <v>13.39</v>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>135.7535</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -580,22 +580,22 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100</v>
+        <v>176.59</v>
       </c>
       <c r="F4" t="n">
-        <v>27.19</v>
+        <v>37.8</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="I4" t="n">
-        <v>-27.19</v>
+        <v>18.2</v>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>150.1015</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100</v>
+        <v>582.47</v>
       </c>
       <c r="F5" t="n">
-        <v>22.28</v>
+        <v>37.4</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>-22.28</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>495.0995</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -670,22 +670,22 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>264.75</v>
+        <v>1448.32</v>
       </c>
       <c r="F6" t="n">
-        <v>34.91</v>
+        <v>76.92</v>
       </c>
       <c r="G6" t="n">
-        <v>16</v>
+        <v>342.4</v>
       </c>
       <c r="H6" t="n">
-        <v>0.46</v>
+        <v>4.45</v>
       </c>
       <c r="I6" t="n">
-        <v>-18.91</v>
+        <v>265.48</v>
       </c>
       <c r="J6" t="n">
-        <v>172.0875</v>
+        <v>1231.072</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -715,22 +715,22 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100</v>
+        <v>429.11</v>
       </c>
       <c r="F7" t="n">
-        <v>33.44</v>
+        <v>39.52</v>
       </c>
       <c r="G7" t="n">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="H7" t="n">
-        <v>0.24</v>
+        <v>2.68</v>
       </c>
       <c r="I7" t="n">
-        <v>-25.44</v>
+        <v>66.47999999999999</v>
       </c>
       <c r="J7" t="n">
-        <v>100</v>
+        <v>364.7435</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -760,22 +760,22 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>267.5</v>
+        <v>139.09</v>
       </c>
       <c r="F8" t="n">
-        <v>50.29</v>
+        <v>72.25</v>
       </c>
       <c r="G8" t="n">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="H8" t="n">
-        <v>0.48</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>-26.29</v>
+        <v>-0.25</v>
       </c>
       <c r="J8" t="n">
-        <v>173.875</v>
+        <v>118.2265</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -805,22 +805,22 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>758.83</v>
+        <v>908.22</v>
       </c>
       <c r="F9" t="n">
-        <v>16.38</v>
+        <v>428.46</v>
       </c>
       <c r="G9" t="n">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="H9" t="n">
-        <v>1.95</v>
+        <v>0.2</v>
       </c>
       <c r="I9" t="n">
-        <v>15.62</v>
+        <v>-343.46</v>
       </c>
       <c r="J9" t="n">
-        <v>493.2395</v>
+        <v>771.987</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -850,10 +850,10 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>138.02</v>
+        <v>100</v>
       </c>
       <c r="F10" t="n">
-        <v>31.12</v>
+        <v>45.22</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>-31.12</v>
+        <v>-45.22</v>
       </c>
       <c r="J10" t="n">
         <v>100</v>
@@ -898,16 +898,16 @@
         <v>100</v>
       </c>
       <c r="F11" t="n">
-        <v>16.85</v>
+        <v>17.47</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="I11" t="n">
-        <v>-16.85</v>
+        <v>-1.469999999999999</v>
       </c>
       <c r="J11" t="n">
         <v>100</v>
@@ -940,22 +940,22 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2624.85</v>
+        <v>1364.92</v>
       </c>
       <c r="F12" t="n">
-        <v>505.49</v>
+        <v>1138.31</v>
       </c>
       <c r="G12" t="n">
-        <v>180</v>
+        <v>954.8</v>
       </c>
       <c r="H12" t="n">
-        <v>0.36</v>
+        <v>0.84</v>
       </c>
       <c r="I12" t="n">
-        <v>-325.49</v>
+        <v>-183.51</v>
       </c>
       <c r="J12" t="n">
-        <v>1706.1525</v>
+        <v>1160.182</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -985,22 +985,22 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100</v>
+        <v>127.4</v>
       </c>
       <c r="F13" t="n">
-        <v>32.08</v>
+        <v>38.42</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>52.4</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="I13" t="n">
-        <v>-32.08</v>
+        <v>13.98</v>
       </c>
       <c r="J13" t="n">
-        <v>100</v>
+        <v>108.29</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1030,22 +1030,22 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>279.01</v>
+        <v>306.1</v>
       </c>
       <c r="F14" t="n">
-        <v>19.43</v>
+        <v>26.21</v>
       </c>
       <c r="G14" t="n">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="H14" t="n">
-        <v>0.82</v>
+        <v>2.14</v>
       </c>
       <c r="I14" t="n">
-        <v>-3.43</v>
+        <v>29.79</v>
       </c>
       <c r="J14" t="n">
-        <v>181.3565</v>
+        <v>260.185</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1075,22 +1075,22 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2356.52</v>
+        <v>4785.35</v>
       </c>
       <c r="F15" t="n">
-        <v>13.67</v>
+        <v>77.58</v>
       </c>
       <c r="G15" t="n">
-        <v>76.40000000000001</v>
+        <v>300.4</v>
       </c>
       <c r="H15" t="n">
-        <v>5.59</v>
+        <v>3.87</v>
       </c>
       <c r="I15" t="n">
-        <v>62.73</v>
+        <v>222.82</v>
       </c>
       <c r="J15" t="n">
-        <v>1531.738</v>
+        <v>4067.5475</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1120,22 +1120,22 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2366.18</v>
+        <v>4266.83</v>
       </c>
       <c r="F16" t="n">
-        <v>14.77</v>
+        <v>60.87</v>
       </c>
       <c r="G16" t="n">
-        <v>68</v>
+        <v>180</v>
       </c>
       <c r="H16" t="n">
-        <v>4.6</v>
+        <v>2.96</v>
       </c>
       <c r="I16" t="n">
-        <v>53.23</v>
+        <v>119.13</v>
       </c>
       <c r="J16" t="n">
-        <v>1538.017</v>
+        <v>3626.8055</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1168,16 +1168,16 @@
         <v>100</v>
       </c>
       <c r="F17" t="n">
-        <v>39.18</v>
+        <v>42.8</v>
       </c>
       <c r="G17" t="n">
         <v>32</v>
       </c>
       <c r="H17" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="I17" t="n">
-        <v>-7.18</v>
+        <v>-10.8</v>
       </c>
       <c r="J17" t="n">
         <v>100</v>
@@ -1210,22 +1210,22 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>188.11</v>
+        <v>155.47</v>
       </c>
       <c r="F18" t="n">
-        <v>27.34</v>
+        <v>36.37</v>
       </c>
       <c r="G18" t="n">
-        <v>24</v>
+        <v>41.4</v>
       </c>
       <c r="H18" t="n">
-        <v>0.88</v>
+        <v>1.14</v>
       </c>
       <c r="I18" t="n">
-        <v>-3.34</v>
+        <v>5.030000000000001</v>
       </c>
       <c r="J18" t="n">
-        <v>122.2715</v>
+        <v>132.1495</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1255,22 +1255,22 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>133.2</v>
+        <v>813.6900000000001</v>
       </c>
       <c r="F19" t="n">
-        <v>37.73000000000001</v>
+        <v>174.57</v>
       </c>
       <c r="G19" t="n">
-        <v>24</v>
+        <v>84.2</v>
       </c>
       <c r="H19" t="n">
-        <v>0.64</v>
+        <v>0.48</v>
       </c>
       <c r="I19" t="n">
-        <v>-13.73000000000001</v>
+        <v>-90.36999999999999</v>
       </c>
       <c r="J19" t="n">
-        <v>120</v>
+        <v>708.4365</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1300,22 +1300,22 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>133.2</v>
+        <v>385.78</v>
       </c>
       <c r="F20" t="n">
-        <v>37.18</v>
+        <v>111.95</v>
       </c>
       <c r="G20" t="n">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="H20" t="n">
-        <v>0.22</v>
+        <v>0.68</v>
       </c>
       <c r="I20" t="n">
-        <v>-29.18</v>
+        <v>-35.95</v>
       </c>
       <c r="J20" t="n">
-        <v>120</v>
+        <v>343.513</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1345,22 +1345,22 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>133.2</v>
+        <v>603.04</v>
       </c>
       <c r="F21" t="n">
-        <v>41.14</v>
+        <v>119.88</v>
       </c>
       <c r="G21" t="n">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="H21" t="n">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="I21" t="n">
-        <v>-25.14</v>
+        <v>-75.88000000000002</v>
       </c>
       <c r="J21" t="n">
-        <v>120</v>
+        <v>528.184</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -1390,10 +1390,10 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>133.2</v>
+        <v>120</v>
       </c>
       <c r="F22" t="n">
-        <v>38.91999999999999</v>
+        <v>52.16</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1402,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>-38.91999999999999</v>
+        <v>-52.16</v>
       </c>
       <c r="J22" t="n">
         <v>120</v>
